--- a/上海/言語設定説明.xlsx
+++ b/上海/言語設定説明.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaphet\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\上海\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC26776-7015-43A6-988D-751E1F0A5918}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099B332-5195-408A-AF9F-34E1094E9448}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35760" yWindow="210" windowWidth="20385" windowHeight="14955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>xmlフォーマット</t>
     <phoneticPr fontId="1"/>
@@ -168,19 +168,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フィールド名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
+    <t>デフォルト言語</t>
+    <rPh sb="5" eb="7">
+      <t>ゲンゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パラメータ：strLanguage（設定言語）</t>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ゲンゴ</t>
+    <t>パラメータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装ソースの説明</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -273,23 +274,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>461805</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>214567</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387419</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>77754</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D28D81E4-AF6F-43A1-8E10-E0B9E62CD5C7}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB80F5B-5C27-4CF8-B370-949A8332081D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -305,8 +306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="235324"/>
-          <a:ext cx="7980952" cy="4685714"/>
+          <a:off x="1367118" y="5647765"/>
+          <a:ext cx="2438095" cy="1019048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -318,22 +319,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D50C97D-5A41-42F2-BB56-DC8D15D77D19}"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0866922A-EDAF-48C2-B0EA-5CF0FED78532}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -341,74 +342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1524000" y="1053353"/>
-          <a:ext cx="6443382" cy="145676"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>156882</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>302558</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{130F9E9F-B509-4DA0-A290-6083EF48624C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1524000" y="1210235"/>
-          <a:ext cx="4247029" cy="806824"/>
+          <a:off x="1367118" y="5614147"/>
+          <a:ext cx="2129117" cy="291353"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -452,381 +387,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C3C2C4B-08BF-4829-9837-205E10E1BE1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1624853" y="2095500"/>
-          <a:ext cx="6275294" cy="1199029"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>257735</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D05CE2-3410-41B7-A993-F35317B17164}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1624853" y="3328147"/>
-          <a:ext cx="6286500" cy="1411941"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A978219-EE5F-4E2A-8930-CEC98D5F4992}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8001000" y="1075765"/>
-          <a:ext cx="907676" cy="78441"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>347382</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>44823</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DB94BAD-7479-458E-8A5D-BD4A86F3A299}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5815853" y="1602441"/>
-          <a:ext cx="3115235" cy="145677"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3A453A2-EA65-4B01-9E7E-04F574AE7B5D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7911353" y="2667000"/>
-          <a:ext cx="1042147" cy="56029"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48820E8A-AA4E-45FD-A339-E1570C0A39A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7911353" y="3899647"/>
-          <a:ext cx="1008529" cy="134471"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>387419</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>214186</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAB80F5B-5C27-4CF8-B370-949A8332081D}"/>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74458CDC-9E75-47C1-8A4F-852200BD1ED8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -842,8 +421,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="5647765"/>
-          <a:ext cx="2438095" cy="1019048"/>
+          <a:off x="683559" y="470647"/>
+          <a:ext cx="7733333" cy="4800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,23 +433,241 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54BB628D-5994-4412-BD16-5A5A1D74C4FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2947147" y="605118"/>
+          <a:ext cx="5939118" cy="392206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>145679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="直線矢印コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3906346-668A-463C-860F-9ADFF69C727C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7608794" y="1086973"/>
+          <a:ext cx="1299882" cy="173689"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC7B4D1-3E9C-425A-A4AE-D335E64E8744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="43" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6241676" y="1753721"/>
+          <a:ext cx="2644589" cy="50426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>5603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線矢印コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DFB918-AC94-4B48-A44B-068F85F834CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8404412" y="2745442"/>
+          <a:ext cx="560294" cy="84043"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
       <xdr:colOff>78441</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0866922A-EDAF-48C2-B0EA-5CF0FED78532}"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D988A8C-37CD-42F4-A048-4A6D27AC13F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,8 +675,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1367118" y="5614147"/>
-          <a:ext cx="2129117" cy="291353"/>
+          <a:off x="1445559" y="896471"/>
+          <a:ext cx="1479176" cy="168088"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,12 +705,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -923,6 +715,323 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3202BA5D-C207-45F0-A104-44B42D433ACB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613647" y="1176618"/>
+          <a:ext cx="5995147" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C221B0-872D-4B54-815E-C369AFC2DF20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1624853" y="1355912"/>
+          <a:ext cx="4616823" cy="795617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E456F959-4FA6-46FA-B77D-E75BFFEBA123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1613647" y="2241176"/>
+          <a:ext cx="6790765" cy="1176618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>235323</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{604626E0-5A57-45D5-8C78-17F5FA455090}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1602441" y="3429000"/>
+          <a:ext cx="6723530" cy="1389529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F0CE924-3CA0-47F6-914D-F8C703B848EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8359588" y="3888441"/>
+          <a:ext cx="537883" cy="235324"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -931,17 +1040,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>598197</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>118620</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676542</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47973</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{323717F0-9654-49C2-8F2F-4FAB2BA34462}"/>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0E38BD-B343-4ADA-818F-B17CCE18EF3D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -957,8 +1066,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="6824382"/>
-          <a:ext cx="6066667" cy="1295238"/>
+          <a:off x="683559" y="7059706"/>
+          <a:ext cx="6828571" cy="1695238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -970,22 +1079,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>162257</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>61478</xdr:rowOff>
+      <xdr:colOff>640129</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>75456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="図 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC8DE12-C96A-4BE6-A169-6E0B92740976}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34015ACA-0321-4C02-9F04-8B43A4B18EED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,8 +1110,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="8706971"/>
-          <a:ext cx="6314286" cy="1238095"/>
+          <a:off x="694765" y="9424148"/>
+          <a:ext cx="6780952" cy="1476190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1013,23 +1122,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>212912</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
+      <xdr:colOff>145677</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>56030</xdr:rowOff>
+      <xdr:rowOff>78442</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54EEB18A-848F-4135-882F-D27FC267A371}"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC512612-5E08-4770-A0A4-5203B492638C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1037,8 +1146,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="661147" y="7037294"/>
-          <a:ext cx="1490382" cy="313765"/>
+          <a:off x="694765" y="7059706"/>
+          <a:ext cx="1501588" cy="313765"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,12 +1176,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1084,23 +1188,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638735</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
+      <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D86703D-AC4A-456F-A4C7-DAAFCD88A64A}"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC784D31-C938-4FF5-8016-2C75ACC7C2FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1108,8 +1212,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4056529" y="8023412"/>
-          <a:ext cx="2061883" cy="235323"/>
+          <a:off x="5412441" y="7978588"/>
+          <a:ext cx="1613647" cy="246530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1138,12 +1242,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1155,23 +1254,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>627530</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>661147</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B62363-8AF2-49EE-8DAF-300CA6171A37}"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F667978-CA40-4881-B8D4-5B6771F4ABF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,8 +1278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4045324" y="9693088"/>
-          <a:ext cx="2084294" cy="201706"/>
+          <a:off x="2095500" y="9468971"/>
+          <a:ext cx="762000" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1209,12 +1308,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1226,23 +1320,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>649941</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>22411</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>89647</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D2E29F0-D012-4783-8629-00E53D36C594}"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64FA8D97-1835-4BE8-8D33-87FC4511F1EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,8 +1344,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2017059" y="8729382"/>
-          <a:ext cx="806823" cy="291353"/>
+          <a:off x="5490882" y="10376647"/>
+          <a:ext cx="1546412" cy="235324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1280,12 +1374,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
@@ -1295,25 +1384,137 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>145677</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>627529</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB08122-05C9-4DB5-9E19-683D915962C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2196353" y="7216589"/>
+          <a:ext cx="3216088" cy="885264"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>196104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>22411</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>140074</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="直線矢印コネクタ 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455B3958-20B9-4F41-A1FD-D873EC01A334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2857500" y="9609045"/>
+          <a:ext cx="2633382" cy="885264"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>123259</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>12504</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>11129</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>25154</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="図 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C32975-31EF-41ED-9C2D-037DB15841E3}"/>
+        <xdr:cNvPr id="70" name="図 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D0FE077-6125-4E15-B6D2-4D5835B0A512}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1329,8 +1530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="10589559"/>
-          <a:ext cx="9009524" cy="7542857"/>
+          <a:off x="683559" y="19531853"/>
+          <a:ext cx="9580952" cy="9438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1339,309 +1540,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>526676</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1E50C7-FDF1-4424-A712-19B124BBF19C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="963706" y="11015382"/>
-          <a:ext cx="4347882" cy="560294"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>504265</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>33618</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0ADCC51-1873-454C-A30C-90D88C543DEE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1187824" y="11889441"/>
-          <a:ext cx="8415617" cy="1086971"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>437030</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70E1EFDC-6603-4A88-87C7-795481BE2B31}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1176618" y="13054853"/>
-          <a:ext cx="5412441" cy="1423147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>515470</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>168089</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>224118</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D7F24F3-BAF4-4175-AE07-B63811152029}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1199029" y="14522824"/>
-          <a:ext cx="6544236" cy="3328147"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>33617</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>658396</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>216133</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461805</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>116912</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="図 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D503CC86-B650-4FF9-B1E7-CCC47F5C872C}"/>
+        <xdr:cNvPr id="71" name="図 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD79BCA1-5C59-44BC-9418-A7FADAEE5C03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,8 +1574,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050677" y="18624176"/>
-          <a:ext cx="4076190" cy="1123810"/>
+          <a:off x="683559" y="11766176"/>
+          <a:ext cx="7980952" cy="6000000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1669,32 +1586,98 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="正方形/長方形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F06483-9C2D-4A19-8520-49A0488EF17B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="862853" y="12012706"/>
+          <a:ext cx="7743265" cy="717176"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112058</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0E3A626-37C0-4723-877D-24A82FEC359F}"/>
+        <xdr:cNvPr id="74" name="直線矢印コネクタ 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C86318F-1DE3-4A74-BC02-4B3B4E1DD68D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5322794" y="11261912"/>
-          <a:ext cx="4975412" cy="156882"/>
+        <a:xfrm flipV="1">
+          <a:off x="8628529" y="12315265"/>
+          <a:ext cx="3003177" cy="33617"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1722,32 +1705,406 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C239641F-FCB9-48F4-B3A8-C026FF6C8052}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1143000" y="18937941"/>
+          <a:ext cx="4482353" cy="1131794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279B6DF3-426B-4CEC-B6A3-A2C900D264A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1154206" y="20372294"/>
+          <a:ext cx="8325970" cy="1781735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916C81B4-1A54-46EA-95B0-EFB5E07989A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1154206" y="22456588"/>
+          <a:ext cx="5479676" cy="2420471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="正方形/長方形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05DD4659-B7E3-42AE-80B6-B0B904A454A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1176618" y="25190824"/>
+          <a:ext cx="6118411" cy="1781735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>123264</xdr:rowOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>207309</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="直線矢印コネクタ 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC9A39DC-4C27-45C4-9616-F68B778C8150}"/>
+        <xdr:cNvPr id="80" name="直線矢印コネクタ 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F533949-3509-4DB1-A85E-0D061295174B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="75" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5625353" y="18982765"/>
+          <a:ext cx="6017559" cy="521073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>593911</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="直線矢印コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87CEACA3-7D5E-4904-99FA-2E41F3208E32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="76" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9480176" y="21263162"/>
+          <a:ext cx="2129118" cy="39220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="直線矢印コネクタ 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A99BF3D-AFAC-49A9-BF04-E17237B145CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9625853" y="12326471"/>
-          <a:ext cx="649941" cy="33617"/>
+        <a:xfrm flipV="1">
+          <a:off x="6667500" y="23655618"/>
+          <a:ext cx="4941794" cy="56029"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1775,32 +2132,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>459442</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>201706</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="直線矢印コネクタ 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E857BC1-DC92-4EBB-964C-59ABE4E9DAA4}"/>
+        <xdr:cNvPr id="86" name="直線矢印コネクタ 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7DC1948-072B-4068-8C08-E0C37F38D5CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6611471" y="13648765"/>
-          <a:ext cx="3641911" cy="112059"/>
+        <a:xfrm flipV="1">
+          <a:off x="7306235" y="26020059"/>
+          <a:ext cx="4303059" cy="67235"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1826,110 +2183,114 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>379149</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>109096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03550638-766D-4846-B4DE-F02DE596500A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="11295529"/>
+          <a:ext cx="5847619" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>235324</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F72D3E-F72E-4209-929A-E93A7E5E5D2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7754471" y="16125265"/>
-          <a:ext cx="2510117" cy="156882"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EBC21CF-FD1F-4DAB-BF81-8DE7B2081904}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1187824" y="12550588"/>
+          <a:ext cx="4527176" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>201706</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="38" name="直線矢印コネクタ 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F6BBE04-9CC0-4B45-A21C-AEB34E10C244}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2935941" y="17582029"/>
-          <a:ext cx="750794" cy="1064559"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2231,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P80"/>
+  <dimension ref="A2:R121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2242,6 +2603,11 @@
     <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -2279,45 +2645,56 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="1" t="s">
+    <row r="49" spans="1:18">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="3" t="s">
+    <row r="61" spans="1:18">
+      <c r="A61" s="1"/>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="R63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="16:16">
-      <c r="P50" t="s">
+    <row r="88" spans="4:18">
+      <c r="D88" s="2"/>
+    </row>
+    <row r="91" spans="4:18">
+      <c r="R91" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="16:16">
-      <c r="P54" t="s">
+    <row r="101" spans="18:18">
+      <c r="R101" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="16:16">
-      <c r="P60" t="s">
+    <row r="111" spans="18:18">
+      <c r="R111" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="4:16">
-      <c r="P70" t="s">
+    <row r="121" spans="18:18">
+      <c r="R121" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="4:16">
-      <c r="D80" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
